--- a/Trabajo/Tablas.xlsx
+++ b/Trabajo/Tablas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\56961\Desktop\Universidad\2021-1\BBDD\BBDD_84\Entrega1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\56961\Desktop\Universidad\2021-1\BBDD\BBDD_84\Trabajo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C20876-8A16-4FDC-BB02-7EB87A6F3D8B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27ECE38-902E-41FD-A059-CCA7A7117EA2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00351CE1-035F-42EE-ADB9-235D5ED1FC37}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>Unidades</t>
   </si>
@@ -597,7 +597,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -618,25 +618,19 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -962,67 +956,70 @@
   <dimension ref="B5:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:H32"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="8" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B5" s="17" t="s">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="13" t="s">
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="G5" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="13"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
@@ -1040,18 +1037,18 @@
       </c>
       <c r="G11" s="4"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="14"/>
+      <c r="C13" s="12"/>
       <c r="E13" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="14"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="F13" s="14"/>
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
@@ -1068,14 +1065,14 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="C16" s="15" t="s">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C16" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
@@ -1086,13 +1083,13 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E19" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F19" s="16"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E20" s="1" t="s">
         <v>34</v>
       </c>
@@ -1100,7 +1097,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>2</v>
       </c>
@@ -1109,7 +1106,7 @@
       <c r="E22" s="9"/>
       <c r="F22" s="10"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>34</v>
       </c>
@@ -1126,10 +1123,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
         <v>6</v>
       </c>
@@ -1141,7 +1138,7 @@
       <c r="G25" s="9"/>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>34</v>
       </c>
@@ -1159,17 +1156,17 @@
       </c>
       <c r="H26" s="4"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B30" s="19" t="s">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>24</v>
       </c>
@@ -1191,17 +1188,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B5:D5"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="B10:F10"/>
     <mergeCell ref="F25:G25"/>
     <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="97" orientation="landscape" r:id="rId1"/>
